--- a/genshin/431788532741987332_2020-09-06_14-00-02.xlsx
+++ b/genshin/431788532741987332_2020-09-06_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:49:01</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11737268518</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3483994366</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-12 16:17:43</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44086.67896990741</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-11 22:05:50</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44085.92071759259</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-10 17:03:08</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44084.71050925926</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>3462438812</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:12:20</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44083.59189814814</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>3462370415</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:10:16</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44083.59046296297</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-09 08:46:56</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44083.36592592593</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>3468306490</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-08 07:47:04</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44082.32435185185</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1127,10 +1127,8 @@
           <t>3462216588</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-08 07:46:21</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44082.32385416667</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -1202,10 +1200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-07 23:01:04</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44081.95907407408</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1269,10 +1265,8 @@
           <t>3463217005</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-07 12:42:04</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44081.52921296296</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1340,10 +1334,8 @@
           <t>3463217005</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-07 11:43:11</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44081.48832175926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1419,10 +1411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-07 11:32:54</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44081.48118055556</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1494,10 +1484,8 @@
           <t>3464231669</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-07 11:29:44</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44081.47898148148</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1565,10 +1553,8 @@
           <t>3464231669</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-07 11:25:40</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44081.47615740741</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1636,10 +1622,8 @@
           <t>3464654376</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-07 11:02:41</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44081.46019675926</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1711,10 +1695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-07 10:43:23</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44081.44679398148</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1778,10 +1760,8 @@
           <t>3464231669</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-07 08:49:09</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44081.36746527778</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1857,10 +1837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-07 08:48:42</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44081.36715277778</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1936,10 +1914,8 @@
           <t>3464231669</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-07 08:43:50</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44081.36377314815</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2015,10 +1991,8 @@
           <t>3464231669</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-07 08:33:22</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44081.35650462963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2086,10 +2060,8 @@
           <t>3464878675</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-07 08:01:57</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44081.3346875</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2161,10 +2133,8 @@
           <t>3463217005</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-07 07:47:27</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44081.32461805556</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2232,10 +2202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-07 07:08:56</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44081.29787037037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2307,10 +2275,8 @@
           <t>3462942961</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-07 06:30:43</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44081.27133101852</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2374,10 +2340,8 @@
           <t>3464696319</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-07 03:32:15</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44081.14739583333</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2442,10 +2406,8 @@
           <t>3463217005</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-07 03:28:03</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44081.14447916667</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2521,10 +2483,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-07 03:17:53</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44081.13741898148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2600,10 +2560,8 @@
           <t>3462056988</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-07 03:12:07</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44081.13341435185</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2679,10 +2637,8 @@
           <t>3464676021</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-07 03:04:28</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44081.12810185185</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2758,10 +2714,8 @@
           <t>3464673690</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-07 02:59:39</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44081.12475694445</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2837,10 +2791,8 @@
           <t>3462604869</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-07 02:55:02</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44081.12155092593</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2916,10 +2868,8 @@
           <t>3464671304</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-07 02:50:16</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44081.11824074074</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2995,10 +2945,8 @@
           <t>3464661429</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-07 02:47:44</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44081.11648148148</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3075,10 +3023,8 @@
           <t>3464665502</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-07 02:45:44</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44081.11509259259</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3154,10 +3100,8 @@
           <t>3464654376</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-07 02:42:41</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44081.11297453703</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3233,10 +3177,8 @@
           <t>3464652594</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-07 02:36:29</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44081.10866898148</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3313,10 +3255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-07 02:29:22</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44081.10372685185</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3376,10 +3316,8 @@
           <t>3462942961</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-07 02:22:00</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44081.09861111111</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3443,10 +3381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-07 02:13:52</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44081.09296296296</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3514,10 +3450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-07 01:47:22</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44081.07456018519</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3589,10 +3523,8 @@
           <t>3464220022</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-07 01:30:20</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44081.06273148148</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3668,10 +3600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-07 01:18:41</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44081.0546412037</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3735,10 +3665,8 @@
           <t>3463217005</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-07 00:59:02</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44081.04099537037</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3810,10 +3738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-07 00:15:21</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44081.01065972223</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3877,10 +3803,8 @@
           <t>3464374530</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-07 00:12:15</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44081.00850694445</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3956,10 +3880,8 @@
           <t>3462438812</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:57:09</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44080.99802083334</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4035,10 +3957,8 @@
           <t>3462438812</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:56:49</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44080.99778935185</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4117,10 +4037,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:37:26</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44080.9843287037</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4184,10 +4102,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:35:10</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44080.98275462963</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4251,10 +4167,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:35:09</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44080.98274305555</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4323,10 +4237,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:34:29</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44080.98228009259</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4390,10 +4302,8 @@
           <t>3464231669</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:33:18</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44080.98145833334</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4470,10 +4380,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:31:44</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44080.98037037037</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4537,10 +4445,8 @@
           <t>3462292768</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:30:47</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44080.97971064815</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4616,10 +4522,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:30:38</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44080.97960648148</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4688,10 +4592,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:29:40</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44080.97893518519</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4755,10 +4657,8 @@
           <t>3464220022</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:29:14</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44080.97863425926</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4834,10 +4734,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:29:04</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44080.97851851852</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4901,10 +4799,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:28:01</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44080.97778935185</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4972,10 +4868,8 @@
           <t>3464206992</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:27:01</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44080.97709490741</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5051,10 +4945,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:26:25</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44080.97667824074</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5119,10 +5011,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:25:42</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44080.97618055555</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5186,10 +5076,8 @@
           <t>3464185065</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:23:56</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44080.97495370371</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5257,10 +5145,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:23:35</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44080.97471064814</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5328,10 +5214,8 @@
           <t>3464185065</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:22:56</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44080.97425925926</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5396,10 +5280,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:21:58</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44080.97358796297</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5463,10 +5345,8 @@
           <t>3464185065</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:21:24</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44080.97319444444</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5534,10 +5414,8 @@
           <t>3464181901</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:21:12</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44080.97305555556</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5606,10 +5484,8 @@
           <t>3464181901</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:20:45</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44080.97274305556</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5674,10 +5550,8 @@
           <t>3464151349</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:19:47</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44080.97207175926</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5741,10 +5615,8 @@
           <t>3464170513</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:19:20</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44080.97175925926</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5812,10 +5684,8 @@
           <t>3464170513</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:18:11</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44080.97096064815</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5879,10 +5749,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:18:00</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44080.97083333333</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5951,10 +5819,8 @@
           <t>3464166951</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:17:20</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44080.97037037037</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6018,10 +5884,8 @@
           <t>3462056988</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:17:16</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44080.97032407407</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6085,10 +5949,8 @@
           <t>3464156068</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:17:13</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44080.97028935186</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6156,10 +6018,8 @@
           <t>3464151349</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:16:47</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44080.96998842592</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6228,10 +6088,8 @@
           <t>3464156068</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:14:56</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44080.9687037037</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6296,10 +6154,8 @@
           <t>3464151349</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:13:25</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44080.96765046296</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6363,10 +6219,8 @@
           <t>3462056988</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:08:37</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44080.96431712963</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6434,10 +6288,8 @@
           <t>3463217005</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:08:32</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44080.96425925926</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6505,10 +6357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:08:05</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44080.96394675926</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6578,10 +6428,8 @@
           <t>3464125609</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:07:25</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44080.96348379629</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6649,10 +6497,8 @@
           <t>3462285848</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-06 23:00:41</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44080.95880787037</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6724,10 +6570,8 @@
           <t>3463984488</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:51:37</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44080.95251157408</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6795,10 +6639,8 @@
           <t>3462285848</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:45:38</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44080.94835648148</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6866,10 +6708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:40:19</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44080.94466435185</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6933,10 +6773,8 @@
           <t>3463984488</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:35:34</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44080.94136574074</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7000,10 +6838,8 @@
           <t>3463576045</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:34:27</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44080.94059027778</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7071,10 +6907,8 @@
           <t>3463217005</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:33:55</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44080.94021990741</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7142,10 +6976,8 @@
           <t>3462758358</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:28:54</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44080.93673611111</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7217,10 +7049,8 @@
           <t>3463926551</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:22:50</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44080.93252314815</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7284,10 +7114,8 @@
           <t>3463911750</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:19:32</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44080.93023148148</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7364,10 +7192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:14:10</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44080.92650462963</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -7431,10 +7257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:12:26</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44080.92530092593</v>
       </c>
       <c r="I97" t="n">
         <v>4</v>
@@ -7498,10 +7322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:10:30</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44080.92395833333</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7577,10 +7399,8 @@
           <t>3462438812</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-06 22:00:04</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44080.91671296296</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7644,10 +7464,8 @@
           <t>3462438812</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-06 21:58:48</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44080.91583333333</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7711,10 +7529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-06 21:57:32</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44080.9149537037</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7778,10 +7594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-06 21:51:28</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44080.91074074074</v>
       </c>
       <c r="I102" t="n">
         <v>2</v>
@@ -7849,10 +7663,8 @@
           <t>3463790626</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-06 21:50:10</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44080.90983796296</v>
       </c>
       <c r="I103" t="n">
         <v>5</v>
@@ -7924,10 +7736,8 @@
           <t>3462022142</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-06 21:43:51</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44080.90545138889</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7991,10 +7801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-06 21:40:49</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44080.9033449074</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8062,10 +7870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-06 21:40:21</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44080.90302083334</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8133,10 +7939,8 @@
           <t>3463699784</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-06 21:30:26</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44080.89613425926</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8200,10 +8004,8 @@
           <t>3463217005</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-06 21:25:36</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44080.89277777778</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8272,10 +8074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-06 21:25:16</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44080.89254629629</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8347,10 +8147,8 @@
           <t>3463576045</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-06 20:59:09</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44080.87440972222</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8418,10 +8216,8 @@
           <t>3463217005</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-06 20:26:11</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44080.8515162037</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8489,10 +8285,8 @@
           <t>3463194021</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-06 20:17:56</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44080.84578703704</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8560,10 +8354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-06 20:12:43</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44080.84216435185</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8627,10 +8419,8 @@
           <t>3463332085</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-06 19:57:32</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44080.83162037037</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8702,10 +8492,8 @@
           <t>3462216588</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-06 19:40:34</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44080.81983796296</v>
       </c>
       <c r="I115" t="n">
         <v>4</v>
@@ -8781,10 +8569,8 @@
           <t>3463214562</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-06 19:29:15</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44080.81197916667</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8852,10 +8638,8 @@
           <t>3463194021</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-06 19:27:50</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44080.81099537037</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8919,10 +8703,8 @@
           <t>3463217005</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-06 19:27:26</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44080.81071759259</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -8990,10 +8772,8 @@
           <t>3463204728</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-06 19:25:42</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44080.80951388889</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9061,10 +8841,8 @@
           <t>3463194021</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-06 19:23:01</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44080.80765046296</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9132,10 +8910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-06 19:18:53</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44080.80478009259</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9199,10 +8975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-06 19:00:24</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44080.79194444444</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9270,10 +9044,8 @@
           <t>3463086405</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:56:34</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44080.78928240741</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9349,10 +9121,8 @@
           <t>3463073573</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:56:17</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44080.78908564815</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9428,10 +9198,8 @@
           <t>3463086405</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:54:00</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44080.7875</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9503,10 +9271,8 @@
           <t>3463073573</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:51:45</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44080.7859375</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9578,10 +9344,8 @@
           <t>3463064756</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:50:38</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44080.78516203703</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9653,10 +9417,8 @@
           <t>3463066830</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:50:23</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44080.78498842593</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9732,10 +9494,8 @@
           <t>3463064363</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:50:19</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44080.78494212963</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9803,10 +9563,8 @@
           <t>3463066830</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:49:52</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44080.78462962963</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9878,10 +9636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:49:40</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44080.78449074074</v>
       </c>
       <c r="I131" t="n">
         <v>5</v>
@@ -9949,10 +9705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:49:11</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44080.7841550926</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10024,10 +9778,8 @@
           <t>3463062256</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:48:42</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44080.78381944444</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10099,10 +9851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:39:39</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44080.77753472222</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10163,10 +9913,8 @@
           <t>3463012811</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:35:32</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44080.77467592592</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10242,10 +9990,8 @@
           <t>3462604869</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:22:12</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44080.76541666667</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10321,10 +10067,8 @@
           <t>3462942961</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:17:59</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44080.76248842593</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10388,10 +10132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:14:33</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44080.76010416666</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10455,10 +10197,8 @@
           <t>3462914589</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:11:42</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44080.758125</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10526,10 +10266,8 @@
           <t>3462905775</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:07:41</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44080.75533564815</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10601,10 +10339,8 @@
           <t>3462441813</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-06 18:05:36</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44080.75388888889</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10676,10 +10412,8 @@
           <t>3462826214</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:55:37</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44080.74695601852</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10747,10 +10481,8 @@
           <t>3462826214</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:48:27</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44080.74197916667</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10822,10 +10554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:47:38</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44080.74141203704</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10897,10 +10627,8 @@
           <t>3462821750</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:46:47</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44080.74082175926</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -10978,10 +10706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:44:41</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44080.73936342593</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11057,10 +10783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:43:25</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44080.7384837963</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11124,10 +10848,8 @@
           <t>3462370415</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:40:01</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44080.73612268519</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11203,10 +10925,8 @@
           <t>3462786047</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:38:06</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44080.73479166667</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11274,10 +10994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:37:13</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44080.73417824074</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11349,10 +11067,8 @@
           <t>3462758358</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:31:57</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44080.73052083333</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -11412,10 +11128,8 @@
           <t>3462370415</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:31:28</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44080.73018518519</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11491,10 +11205,8 @@
           <t>3462732296</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:23:05</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44080.72436342593</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11566,10 +11278,8 @@
           <t>3462018655</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:19:01</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44080.72153935185</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -11637,10 +11347,8 @@
           <t>3462563517</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:18:08</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44080.72092592593</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11708,10 +11416,8 @@
           <t>3462479473</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:18:01</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44080.72084490741</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11779,10 +11485,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:12:16</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44080.71685185185</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11846,10 +11550,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:11:36</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44080.71638888889</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11917,10 +11619,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:09:59</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44080.7152662037</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11984,10 +11684,8 @@
           <t>3462669508</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:08:21</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44080.71413194444</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12055,10 +11753,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:07:51</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44080.71378472223</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12122,10 +11818,8 @@
           <t>3462659960</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:05:22</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44080.71206018519</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12189,10 +11883,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:05:09</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44080.71190972222</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12256,10 +11948,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:04:50</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44080.71168981482</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12327,10 +12017,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:03:35</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44080.71082175926</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12394,10 +12082,8 @@
           <t>3462292768</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-06 17:01:04</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44080.70907407408</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12461,10 +12147,8 @@
           <t>3462638333</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:59:10</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44080.70775462963</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12536,10 +12220,8 @@
           <t>3462635629</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:56:54</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44080.70618055556</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12615,10 +12297,8 @@
           <t>3462628963</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:56:38</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44080.70599537037</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12694,10 +12374,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:52:29</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44080.70311342592</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12761,10 +12439,8 @@
           <t>3462604869</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:49:58</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44080.70136574074</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -12840,10 +12516,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:41:27</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44080.69545138889</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12907,10 +12581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:41:05</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44080.69519675926</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12986,10 +12658,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:40:48</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44080.695</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13053,10 +12723,8 @@
           <t>3462563517</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:38:31</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44080.69341435185</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13124,10 +12792,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:33:41</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44080.69005787037</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13195,10 +12861,8 @@
           <t>3462071264</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:31:13</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44080.68834490741</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13262,10 +12926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:30:13</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44080.68765046296</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13333,10 +12995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:28:23</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44080.68637731481</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13408,10 +13068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:27:50</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44080.68599537037</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13487,10 +13145,8 @@
           <t>3462499453</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:19:43</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44080.68035879629</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13550,10 +13206,8 @@
           <t>3462488199</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:16:40</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44080.67824074074</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13617,10 +13271,8 @@
           <t>3462495599</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:16:31</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44080.67813657408</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13684,10 +13336,8 @@
           <t>3462479473</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:15:16</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44080.67726851852</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13747,10 +13397,8 @@
           <t>3462473081</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:12:12</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44080.67513888889</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13818,10 +13466,8 @@
           <t>3462469949</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:11:36</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44080.67472222223</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13893,10 +13539,8 @@
           <t>3462467647</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:09:36</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44080.67333333333</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13960,10 +13604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:09:21</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44080.67315972222</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14027,10 +13669,8 @@
           <t>3462441813</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:02:19</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44080.66827546297</v>
       </c>
       <c r="I189" t="n">
         <v>8</v>
@@ -14106,10 +13746,8 @@
           <t>3462438812</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:01:59</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44080.66804398148</v>
       </c>
       <c r="I190" t="n">
         <v>14</v>
@@ -14185,10 +13823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-06 16:01:42</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44080.66784722222</v>
       </c>
       <c r="I191" t="n">
         <v>20</v>
@@ -14264,10 +13900,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:58:41</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44080.66575231482</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14331,10 +13965,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:58:04</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44080.66532407407</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14402,10 +14034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:57:58</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44080.66525462963</v>
       </c>
       <c r="I194" t="n">
         <v>4</v>
@@ -14473,10 +14103,8 @@
           <t>3462426728</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:57:48</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44080.66513888889</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14553,10 +14181,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:53:06</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44080.661875</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14628,10 +14254,8 @@
           <t>3462398839</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:50:47</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44080.6602662037</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14703,10 +14327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:49:54</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44080.65965277778</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14774,10 +14396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:46:16</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44080.65712962963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14853,10 +14473,8 @@
           <t>3462390803</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:46:08</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44080.65703703704</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14928,10 +14546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:45:36</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44080.65666666667</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -15003,10 +14619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:45:28</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44080.65657407408</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15074,10 +14688,8 @@
           <t>3462374015</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:43:54</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44080.65548611111</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15145,10 +14757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:43:19</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44080.65508101852</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15212,10 +14822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:43:07</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44080.65494212963</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15279,10 +14887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:41:23</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44080.65373842593</v>
       </c>
       <c r="I206" t="n">
         <v>4</v>
@@ -15358,10 +14964,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:41:04</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44080.65351851852</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15429,10 +15033,8 @@
           <t>3462370415</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:40:42</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44080.65326388889</v>
       </c>
       <c r="I208" t="n">
         <v>3</v>
@@ -15508,10 +15110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:40:18</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44080.65298611111</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15575,10 +15175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:38:40</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44080.65185185185</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15646,10 +15244,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:34:58</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44080.64928240741</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15717,10 +15313,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:31:22</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44080.64678240741</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15796,10 +15390,8 @@
           <t>3462333046</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:31:00</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44080.64652777778</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15875,10 +15467,8 @@
           <t>3462331372</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:29:39</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44080.64559027777</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15955,10 +15545,8 @@
           <t>3462292768</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:28:41</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44080.64491898148</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16026,10 +15614,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:27:29</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44080.64408564815</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16097,10 +15683,8 @@
           <t>3462292552</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:24:54</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44080.64229166666</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16164,10 +15748,8 @@
           <t>3462022142</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:24:26</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44080.64196759259</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16243,10 +15825,8 @@
           <t>3462292353</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:24:07</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44080.64174768519</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -16314,10 +15894,8 @@
           <t>3462311229</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:23:44</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44080.64148148148</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16385,10 +15963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:22:39</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44080.64072916667</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16452,10 +16028,8 @@
           <t>3462292768</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:22:21</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44080.64052083333</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16531,10 +16105,8 @@
           <t>3462292768</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:20:09</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44080.63899305555</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16598,10 +16170,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:19:50</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44080.63877314814</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16669,10 +16239,8 @@
           <t>3462292975</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:19:20</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44080.63842592593</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16740,10 +16308,8 @@
           <t>3462292768</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:19:08</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44080.63828703704</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16815,10 +16381,8 @@
           <t>3462292552</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:18:57</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44080.63815972222</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16886,10 +16450,8 @@
           <t>3462292353</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:18:46</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44080.63803240741</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -16957,10 +16519,8 @@
           <t>3462071264</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:18:45</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44080.63802083334</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17036,10 +16596,8 @@
           <t>3462071264</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:18:26</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44080.63780092593</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17115,10 +16673,8 @@
           <t>3462285848</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:18:09</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44080.63760416667</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17190,10 +16746,8 @@
           <t>3462071264</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:18:00</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44080.6375</v>
       </c>
       <c r="I232" t="n">
         <v>2</v>
@@ -17265,10 +16819,8 @@
           <t>3462217790</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:17:56</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44080.6374537037</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17340,10 +16892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:16:24</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44080.63638888889</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17407,10 +16957,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:16:24</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44080.63638888889</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17486,10 +17034,8 @@
           <t>3462285848</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:16:17</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44080.63630787037</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17561,10 +17107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:14:23</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44080.63498842593</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17632,10 +17176,8 @@
           <t>3462267173</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:12:24</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44080.63361111111</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -17703,10 +17245,8 @@
           <t>3462224265</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:12:19</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44080.63355324074</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -17774,10 +17314,8 @@
           <t>3462217372</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:11:14</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44080.63280092592</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17853,10 +17391,8 @@
           <t>3462267173</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:11:09</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44080.63274305555</v>
       </c>
       <c r="I241" t="n">
         <v>11</v>
@@ -17932,10 +17468,8 @@
           <t>3462259880</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:11:08</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44080.63273148148</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18011,10 +17545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:10:19</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44080.63216435185</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18086,10 +17618,8 @@
           <t>3462217372</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:09:51</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44080.63184027778</v>
       </c>
       <c r="I244" t="n">
         <v>2</v>
@@ -18165,10 +17695,8 @@
           <t>3462217372</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:09:43</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44080.63174768518</v>
       </c>
       <c r="I245" t="n">
         <v>2</v>
@@ -18244,10 +17772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:08:35</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44080.63096064814</v>
       </c>
       <c r="I246" t="n">
         <v>4</v>
@@ -18311,10 +17837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:07:58</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44080.63053240741</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18382,10 +17906,8 @@
           <t>3462217372</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:05:57</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44080.62913194444</v>
       </c>
       <c r="I248" t="n">
         <v>2</v>
@@ -18453,10 +17975,8 @@
           <t>3462217372</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:05:03</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44080.62850694444</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18532,10 +18052,8 @@
           <t>3462217372</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:04:27</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44080.62809027778</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18607,10 +18125,8 @@
           <t>3462217372</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:02:34</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44080.62678240741</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18686,10 +18202,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:02:23</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44080.62665509259</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18757,10 +18271,8 @@
           <t>3462071264</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-06 15:01:50</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44080.62627314815</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18832,10 +18344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:59:59</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44080.62498842592</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18911,10 +18421,8 @@
           <t>3462230429</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:59:46</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44080.62483796296</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18990,10 +18498,8 @@
           <t>3462224265</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:59:33</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44080.6246875</v>
       </c>
       <c r="I256" t="n">
         <v>3</v>
@@ -19057,10 +18563,8 @@
           <t>3462230429</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:59:24</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44080.62458333333</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19132,10 +18636,8 @@
           <t>3462214907</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:58:18</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44080.62381944444</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19207,10 +18709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:58:14</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44080.62377314815</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19286,10 +18786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:58:06</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44080.62368055555</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19361,10 +18859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:57:55</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44080.62355324074</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19424,10 +18920,8 @@
           <t>3462071264</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:57:34</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44080.62331018518</v>
       </c>
       <c r="I262" t="n">
         <v>4</v>
@@ -19491,10 +18985,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:57:31</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44080.62327546296</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19558,10 +19050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:57:25</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44080.62320601852</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19637,10 +19127,8 @@
           <t>3462213879</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:57:24</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44080.62319444444</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19716,10 +19204,8 @@
           <t>3462217790</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:57:04</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44080.62296296296</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19795,10 +19281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:56:59</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44080.62290509259</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19858,10 +19342,8 @@
           <t>3462217372</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:56:42</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44080.62270833334</v>
       </c>
       <c r="I268" t="n">
         <v>2</v>
@@ -19929,10 +19411,8 @@
           <t>3462217231</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:56:34</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44080.62261574074</v>
       </c>
       <c r="I269" t="n">
         <v>4</v>
@@ -20000,10 +19480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:56:05</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44080.62228009259</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20067,10 +19545,8 @@
           <t>3462216588</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:56:00</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44080.62222222222</v>
       </c>
       <c r="I271" t="n">
         <v>6</v>
@@ -20142,10 +19618,8 @@
           <t>3462220141</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:55:59</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44080.62221064815</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20209,10 +19683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:55:50</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44080.62210648148</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20276,10 +19748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:55:33</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44080.62190972222</v>
       </c>
       <c r="I274" t="n">
         <v>8</v>
@@ -20355,10 +19825,8 @@
           <t>3462216087</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:55:33</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44080.62190972222</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20418,10 +19886,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:53:04</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44080.62018518519</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20489,10 +19955,8 @@
           <t>3462201395</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:51:31</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44080.61910879629</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20560,10 +20024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:49:40</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44080.61782407408</v>
       </c>
       <c r="I278" t="n">
         <v>19</v>
@@ -20627,10 +20089,8 @@
           <t>3462070430</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:49:38</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44080.61780092592</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20694,10 +20154,8 @@
           <t>3462190682</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:47:47</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44080.61651620371</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20761,10 +20219,8 @@
           <t>3462165167</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:47:27</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44080.61628472222</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20824,10 +20280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:46:19</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44080.61549768518</v>
       </c>
       <c r="I282" t="n">
         <v>23</v>
@@ -20891,10 +20345,8 @@
           <t>3462180483</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:45:58</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44080.61525462963</v>
       </c>
       <c r="I283" t="n">
         <v>2</v>
@@ -20966,10 +20418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:45:48</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44080.61513888889</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21045,10 +20495,8 @@
           <t>3462175170</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:42:58</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44080.6131712963</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21120,10 +20568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:42:09</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44080.61260416666</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21195,10 +20641,8 @@
           <t>3462165167</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:41:28</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44080.61212962963</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21262,10 +20706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:41:08</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44080.61189814815</v>
       </c>
       <c r="I288" t="n">
         <v>77</v>
@@ -21325,10 +20767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:40:10</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44080.61122685186</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21404,10 +20844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:38:35</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44080.61012731482</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21471,10 +20909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:37:29</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44080.60936342592</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21547,10 +20983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:36:22</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44080.60858796296</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21610,10 +21044,8 @@
           <t>3462146669</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:35:35</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44080.60804398148</v>
       </c>
       <c r="I293" t="n">
         <v>36</v>
@@ -21689,10 +21121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:34:47</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44080.60748842593</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21760,10 +21190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:32:58</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44080.60622685185</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21835,10 +21263,8 @@
           <t>3462124288</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:32:04</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44080.60560185185</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -21902,10 +21328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:31:51</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44080.60545138889</v>
       </c>
       <c r="I297" t="n">
         <v>3</v>
@@ -21981,10 +21405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:31:27</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44080.60517361111</v>
       </c>
       <c r="I298" t="n">
         <v>4</v>
@@ -22060,10 +21482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:30:16</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44080.60435185185</v>
       </c>
       <c r="I299" t="n">
         <v>3</v>
@@ -22135,10 +21555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:30:08</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44080.60425925926</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22202,10 +21620,8 @@
           <t>3462086696</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:26:45</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44080.60190972222</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22283,10 +21699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:26:35</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44080.60179398148</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22360,10 +21774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:26:13</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44080.60153935185</v>
       </c>
       <c r="I303" t="n">
         <v>8</v>
@@ -22439,10 +21851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:24:38</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44080.60043981481</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22514,10 +21924,8 @@
           <t>3462026427</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:24:02</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44080.60002314814</v>
       </c>
       <c r="I305" t="n">
         <v>2</v>
@@ -22585,10 +21993,8 @@
           <t>3462094378</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:23:32</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44080.59967592593</v>
       </c>
       <c r="I306" t="n">
         <v>4</v>
@@ -22656,10 +22062,8 @@
           <t>3462026427</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:23:16</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44080.59949074074</v>
       </c>
       <c r="I307" t="n">
         <v>28</v>
@@ -22727,10 +22131,8 @@
           <t>3462098538</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:23:16</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44080.59949074074</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22798,10 +22200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:22:40</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44080.59907407407</v>
       </c>
       <c r="I309" t="n">
         <v>2</v>
@@ -22865,10 +22265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:22:11</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44080.59873842593</v>
       </c>
       <c r="I310" t="n">
         <v>103</v>
@@ -22936,10 +22334,8 @@
           <t>3462100907</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:21:50</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44080.59849537037</v>
       </c>
       <c r="I311" t="n">
         <v>6</v>
@@ -23003,10 +22399,8 @@
           <t>3462026427</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:20:23</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44080.59748842593</v>
       </c>
       <c r="I312" t="n">
         <v>6</v>
@@ -23074,10 +22468,8 @@
           <t>3462026427</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:19:13</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44080.59667824074</v>
       </c>
       <c r="I313" t="n">
         <v>11</v>
@@ -23153,10 +22545,8 @@
           <t>3462026427</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:19:02</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44080.59655092593</v>
       </c>
       <c r="I314" t="n">
         <v>16</v>
@@ -23232,10 +22622,8 @@
           <t>3462026427</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:18:33</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44080.59621527778</v>
       </c>
       <c r="I315" t="n">
         <v>9</v>
@@ -23303,10 +22691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:18:28</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44080.59615740741</v>
       </c>
       <c r="I316" t="n">
         <v>24</v>
@@ -23378,10 +22764,8 @@
           <t>3462086696</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:18:18</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44080.59604166666</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23457,10 +22841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:16:22</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44080.59469907408</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23524,10 +22906,8 @@
           <t>3462064663</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:16:18</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44080.59465277778</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23591,10 +22971,8 @@
           <t>3462026427</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:16:07</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44080.59452546296</v>
       </c>
       <c r="I320" t="n">
         <v>9</v>
@@ -23670,10 +23048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:15:33</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44080.59413194445</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23745,10 +23121,8 @@
           <t>3462064663</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:15:18</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44080.59395833333</v>
       </c>
       <c r="I322" t="n">
         <v>2</v>
@@ -23820,10 +23194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:15:17</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44080.59394675926</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23887,10 +23259,8 @@
           <t>3462026427</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:15:01</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44080.59376157408</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -23958,10 +23328,8 @@
           <t>3462071264</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:14:50</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44080.59363425926</v>
       </c>
       <c r="I325" t="n">
         <v>52</v>
@@ -24037,10 +23405,8 @@
           <t>3462071264</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:13:39</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44080.5928125</v>
       </c>
       <c r="I326" t="n">
         <v>76</v>
@@ -24104,10 +23470,8 @@
           <t>3462071010</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:13:26</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44080.59266203704</v>
       </c>
       <c r="I327" t="n">
         <v>4</v>
@@ -24179,10 +23543,8 @@
           <t>3462026427</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:13:07</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44080.59244212963</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24250,10 +23612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:13:03</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44080.59239583334</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24331,10 +23691,8 @@
           <t>3462070430</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:12:55</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44080.59230324074</v>
       </c>
       <c r="I330" t="n">
         <v>2</v>
@@ -24402,10 +23760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:11:50</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44080.59155092593</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24477,10 +23833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:11:14</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44080.59113425926</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24556,10 +23910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:10:53</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44080.5908912037</v>
       </c>
       <c r="I333" t="n">
         <v>2</v>
@@ -24635,10 +23987,8 @@
           <t>3462053289</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:10:48</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44080.59083333334</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24702,10 +24052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:10:13</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44080.59042824074</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24769,10 +24117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:10:05</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44080.59033564815</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24848,10 +24194,8 @@
           <t>3462056988</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:10:02</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44080.59030092593</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24915,10 +24259,8 @@
           <t>3462056854</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:09:55</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44080.5902199074</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24994,10 +24336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:09:38</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44080.59002314815</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25061,10 +24401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:08:37</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44080.58931712963</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25132,10 +24470,8 @@
           <t>3462055321</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:08:37</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44080.58931712963</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25203,10 +24539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:08:24</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44080.58916666666</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25283,10 +24617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:07:53</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44080.58880787037</v>
       </c>
       <c r="I343" t="n">
         <v>78</v>
@@ -25362,10 +24694,8 @@
           <t>3462039627</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:07:49</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44080.58876157407</v>
       </c>
       <c r="I344" t="n">
         <v>4</v>
@@ -25433,10 +24763,8 @@
           <t>3462018655</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:07:44</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44080.5887037037</v>
       </c>
       <c r="I345" t="n">
         <v>84</v>
@@ -25512,10 +24840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:07:35</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44080.58859953703</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25591,10 +24917,8 @@
           <t>3462045491</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:07:34</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44080.58858796296</v>
       </c>
       <c r="I347" t="n">
         <v>19</v>
@@ -25670,10 +24994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:07:17</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44080.5883912037</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25749,10 +25071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:07:14</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44080.58835648148</v>
       </c>
       <c r="I349" t="n">
         <v>14</v>
@@ -25816,10 +25136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:06:18</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44080.58770833333</v>
       </c>
       <c r="I350" t="n">
         <v>47</v>
@@ -25895,10 +25213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:05:54</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44080.58743055556</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -25970,10 +25286,8 @@
           <t>3462041588</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:05:26</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44080.58710648148</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26037,10 +25351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:05:22</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44080.58706018519</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26117,10 +25429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:05:22</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44080.58706018519</v>
       </c>
       <c r="I354" t="n">
         <v>26</v>
@@ -26196,10 +25506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:05:13</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44080.58695601852</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26263,10 +25571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:04:37</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44080.58653935185</v>
       </c>
       <c r="I356" t="n">
         <v>34</v>
@@ -26338,10 +25644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:03:56</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44080.58606481482</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26413,10 +25717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:03:53</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44080.58603009259</v>
       </c>
       <c r="I358" t="n">
         <v>29</v>
@@ -26484,10 +25786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:03:48</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44080.58597222222</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26555,10 +25855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:03:44</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44080.58592592592</v>
       </c>
       <c r="I360" t="n">
         <v>65</v>
@@ -26634,10 +25932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:03:44</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44080.58592592592</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26713,10 +26009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:03:38</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44080.58585648148</v>
       </c>
       <c r="I362" t="n">
         <v>13</v>
@@ -26784,10 +26078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:03:16</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44080.58560185185</v>
       </c>
       <c r="I363" t="n">
         <v>5</v>
@@ -26859,10 +26151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:03:11</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44080.58554398148</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26932,10 +26222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:02:47</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44080.58526620371</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27003,10 +26291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:02:43</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44080.58521990741</v>
       </c>
       <c r="I366" t="n">
         <v>13</v>
@@ -27070,10 +26356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:02:39</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44080.58517361111</v>
       </c>
       <c r="I367" t="n">
         <v>73</v>
@@ -27141,10 +26425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:02:33</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44080.58510416667</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27208,10 +26490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:02:33</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44080.58510416667</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27283,10 +26563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:02:12</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44080.58486111111</v>
       </c>
       <c r="I370" t="n">
         <v>25</v>
@@ -27350,10 +26628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:02:08</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44080.58481481481</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27429,10 +26705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:02:02</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44080.58474537037</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27508,10 +26782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:59</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44080.58471064815</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27575,10 +26847,8 @@
           <t>3462018655</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:55</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44080.58466435185</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27650,10 +26920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:53</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44080.58464120371</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27713,10 +26981,8 @@
           <t>3462022142</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:47</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44080.58457175926</v>
       </c>
       <c r="I376" t="n">
         <v>5</v>
@@ -27784,10 +27050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:40</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44080.58449074074</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27851,10 +27115,8 @@
           <t>3462026427</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:37</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44080.58445601852</v>
       </c>
       <c r="I378" t="n">
         <v>22</v>
@@ -27922,10 +27184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:29</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44080.58436342593</v>
       </c>
       <c r="I379" t="n">
         <v>449</v>
@@ -27993,10 +27253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:28</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44080.58435185185</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28072,10 +27330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:26</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44080.58432870371</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28143,10 +27399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:22</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44080.58428240741</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28214,10 +27468,8 @@
           <t>3462021515</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:15</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44080.58420138889</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28293,10 +27545,8 @@
           <t>3462026427</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:14</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44080.58418981481</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28364,10 +27614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:08</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44080.58412037037</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28443,10 +27691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:07</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44080.5841087963</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28522,10 +27768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:07</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44080.5841087963</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28593,10 +27837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:06</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44080.58409722222</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28660,10 +27902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:05</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44080.58408564814</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28727,10 +27967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:04</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44080.58407407408</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28794,10 +28032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:02</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44080.58405092593</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28865,10 +28101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:01:02</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44080.58405092593</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28944,10 +28178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:00:59</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44080.58401620371</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29015,10 +28247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:00:50</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44080.58391203704</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29090,10 +28320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:00:45</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44080.58385416667</v>
       </c>
       <c r="I395" t="n">
         <v>810</v>
@@ -29169,10 +28397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:00:44</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44080.58384259259</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29244,10 +28470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:00:34</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44080.58372685185</v>
       </c>
       <c r="I397" t="n">
         <v>5</v>
@@ -29319,10 +28543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:00:29</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44080.58366898148</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29386,10 +28608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:00:24</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44080.58361111111</v>
       </c>
       <c r="I399" t="n">
         <v>225</v>
@@ -29461,10 +28681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:00:23</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44080.58359953704</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29536,10 +28754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-09-06 14:00:18</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44080.58354166667</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
